--- a/public/Reportes/Asociados/FacturasPendientes_2023-09-27130001_2023-10-04130000.xlsx
+++ b/public/Reportes/Asociados/FacturasPendientes_2023-09-27130001_2023-10-04130000.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>Folio SD</t>
   </si>
@@ -95,6 +95,261 @@
   </si>
   <si>
     <t>UUID</t>
+  </si>
+  <si>
+    <t>Hector Martin Ortiz Roman</t>
+  </si>
+  <si>
+    <t>CONCLUIDO</t>
+  </si>
+  <si>
+    <t>TAMPICO</t>
+  </si>
+  <si>
+    <t>Correctivo</t>
+  </si>
+  <si>
+    <t>2023-09-26 22:17:11</t>
+  </si>
+  <si>
+    <t>FALTA PAGO</t>
+  </si>
+  <si>
+    <t>Oscar Coronel Moreno</t>
+  </si>
+  <si>
+    <t>2023-10-03T13:55:20</t>
+  </si>
+  <si>
+    <t>MXN</t>
+  </si>
+  <si>
+    <t>OIRH6410159V4</t>
+  </si>
+  <si>
+    <t>HECTOR MARTIN ORTIZ ROMAN</t>
+  </si>
+  <si>
+    <t>SSC070322J37</t>
+  </si>
+  <si>
+    <t>SERVICIOS EN SOPORTE CORPORATIVO Y PUNTO DE VENTA</t>
+  </si>
+  <si>
+    <t>22B7D58B-4A9F-4F36-9ACD-FEEB0B50CFEF</t>
+  </si>
+  <si>
+    <t>Daniel Mijango Puga</t>
+  </si>
+  <si>
+    <t>DOS LAREDOS</t>
+  </si>
+  <si>
+    <t>2023-09-21 14:05:01</t>
+  </si>
+  <si>
+    <t>2023-10-03T18:41:52</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>MIPD660103NK8</t>
+  </si>
+  <si>
+    <t>DANIEL MIJANGO PUGA</t>
+  </si>
+  <si>
+    <t>6D8920FB-6246-11EE-8E4A-5B0CD348B05A</t>
+  </si>
+  <si>
+    <t>Pamela García Estupiñan</t>
+  </si>
+  <si>
+    <t>INTERMALL</t>
+  </si>
+  <si>
+    <t>2023-09-26 18:32:34</t>
+  </si>
+  <si>
+    <t>2023-10-03T13:50:34</t>
+  </si>
+  <si>
+    <t>GAEE8804268B7</t>
+  </si>
+  <si>
+    <t>ELVIA PAMELA GARCIA ESTUPIÑAN</t>
+  </si>
+  <si>
+    <t>D4E06B6D-45D6-4D48-976B-9D9CCB89142D</t>
+  </si>
+  <si>
+    <t>Alfredo Gutierrez Gonzalez</t>
+  </si>
+  <si>
+    <t>PORTAL FRESNILLO</t>
+  </si>
+  <si>
+    <t>2023-09-17 16:04:29</t>
+  </si>
+  <si>
+    <t>2023-10-03T19:58:16</t>
+  </si>
+  <si>
+    <t>GUGA811227KX1</t>
+  </si>
+  <si>
+    <t>ALFREDO GUTIERREZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>2C501BBB-2A2F-42A1-89F0-3C4E92FC9B98</t>
+  </si>
+  <si>
+    <t>ZACATECAS</t>
+  </si>
+  <si>
+    <t>2023-09-20 13:19:14</t>
+  </si>
+  <si>
+    <t>2023-10-03T20:01:54</t>
+  </si>
+  <si>
+    <t>08560AC3-5C00-4F19-A7F3-8D214C3B2990</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>AGUASCALIENTES</t>
+  </si>
+  <si>
+    <t>2023-09-21 17:17:29</t>
+  </si>
+  <si>
+    <t>2023-10-03T20:06:21</t>
+  </si>
+  <si>
+    <t>4535CF56-6706-4AF2-8A74-07BD9437B722</t>
+  </si>
+  <si>
+    <t>2023-10-02 15:19:03</t>
+  </si>
+  <si>
+    <t>2023-10-03T20:10:06</t>
+  </si>
+  <si>
+    <t>BDBF60E3-05F8-413F-8656-3A36E7C8EF23</t>
+  </si>
+  <si>
+    <t>2023-10-02 15:19:50</t>
+  </si>
+  <si>
+    <t>2023-10-03T20:13:21</t>
+  </si>
+  <si>
+    <t>31C9ECE8-AA91-4D6D-B31F-E37F7F0F3746</t>
+  </si>
+  <si>
+    <t>2023-09-12 12:32:12</t>
+  </si>
+  <si>
+    <t>2023-10-03T18:43:49</t>
+  </si>
+  <si>
+    <t>B345E940-6246-11EE-9FB1-992900A5982B</t>
+  </si>
+  <si>
+    <t>Mantenimiento Prev. Gral.</t>
+  </si>
+  <si>
+    <t>2023-09-26 13:58:06</t>
+  </si>
+  <si>
+    <t>2023-10-03T13:15:09</t>
+  </si>
+  <si>
+    <t>AAA1B45D-21DB-4F80-887C-6952BC836742</t>
+  </si>
+  <si>
+    <t>2023-09-21 15:16:23</t>
+  </si>
+  <si>
+    <t>2023-10-03T18:39:17</t>
+  </si>
+  <si>
+    <t>112600FA-6246-11EE-87C6-2F85BB31D407</t>
+  </si>
+  <si>
+    <t>Juan Miguel Rodriguez N</t>
+  </si>
+  <si>
+    <t>THE PARK PLATINO</t>
+  </si>
+  <si>
+    <t>Servicio Adicional</t>
+  </si>
+  <si>
+    <t>2023-09-28 20:06:11</t>
+  </si>
+  <si>
+    <t>2023-10-03T14:28:10</t>
+  </si>
+  <si>
+    <t>C5C45595-5F03-4502-9791-7E963DEFFE15</t>
+  </si>
+  <si>
+    <t>DURANGO</t>
+  </si>
+  <si>
+    <t>Asignación a Soporte en Sitio</t>
+  </si>
+  <si>
+    <t>2023-09-26 18:10:02</t>
+  </si>
+  <si>
+    <t>2023-10-03T13:59:52</t>
+  </si>
+  <si>
+    <t>3B92FDC4-FD51-4D17-B681-7EE9D279CC26</t>
+  </si>
+  <si>
+    <t>THE PARK</t>
+  </si>
+  <si>
+    <t>Redes</t>
+  </si>
+  <si>
+    <t>2023-09-28 22:04:36</t>
+  </si>
+  <si>
+    <t>2023-10-03T14:31:28</t>
+  </si>
+  <si>
+    <t>ABF3FA1E-ED27-4B25-9BF2-5CFF9148AC17</t>
+  </si>
+  <si>
+    <t>ALBOA CITADELLA SLP</t>
+  </si>
+  <si>
+    <t>Traslado</t>
+  </si>
+  <si>
+    <t>2023-10-01 15:36:38</t>
+  </si>
+  <si>
+    <t>2023-10-03T14:34:03</t>
+  </si>
+  <si>
+    <t>5980D179-440B-4223-AD27-8195B575AC72</t>
+  </si>
+  <si>
+    <t>2023-10-01 19:46:24</t>
+  </si>
+  <si>
+    <t>2023-10-03T14:37:01</t>
+  </si>
+  <si>
+    <t>53BB1D73-77D4-48B3-884A-E7B47969B7D3</t>
   </si>
 </sst>
 </file>
@@ -434,7 +689,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:YZ1"/>
+  <dimension ref="A1:YZ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,29 +700,29 @@
     <col min="1" max="1" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="10.426" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="31.707" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="22.28" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="35.277" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="10.426" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="19.852" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="11.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="15.139" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="24.708" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="11.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="16" max="16" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="10.426" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="20" max="20" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="15.139" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="35.277" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="19.852" bestFit="true" customWidth="true" style="0"/>
     <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="20.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="58.843" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="43.561" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="9.10" bestFit="true" style="0"/>
     <col min="28" max="28" width="9.10" bestFit="true" style="0"/>
     <col min="29" max="29" width="9.10" bestFit="true" style="0"/>
@@ -1200,6 +1455,1242 @@
         <v>25</v>
       </c>
     </row>
+    <row r="2" spans="1:676">
+      <c r="A2">
+        <v>838102</v>
+      </c>
+      <c r="B2">
+        <v>192869</v>
+      </c>
+      <c r="C2">
+        <v>169711</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>600.0</v>
+      </c>
+      <c r="L2">
+        <v>0.0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2">
+        <v>4.0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2">
+        <v>600.0</v>
+      </c>
+      <c r="T2">
+        <v>688.5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2">
+        <v>626</v>
+      </c>
+      <c r="X2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:676">
+      <c r="A3">
+        <v>838105</v>
+      </c>
+      <c r="B3">
+        <v>194045</v>
+      </c>
+      <c r="C3">
+        <v>171385</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3">
+        <v>600.0</v>
+      </c>
+      <c r="L3">
+        <v>0.0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3">
+        <v>4.0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3">
+        <v>2059</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3">
+        <v>600.0</v>
+      </c>
+      <c r="T3">
+        <v>696.0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3">
+        <v>612</v>
+      </c>
+      <c r="X3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:676">
+      <c r="A4">
+        <v>838158</v>
+      </c>
+      <c r="B4">
+        <v>193864</v>
+      </c>
+      <c r="C4">
+        <v>171158</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4">
+        <v>600.0</v>
+      </c>
+      <c r="L4">
+        <v>0.0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4">
+        <v>4.0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4">
+        <v>3611</v>
+      </c>
+      <c r="R4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4">
+        <v>600.0</v>
+      </c>
+      <c r="T4">
+        <v>688.5</v>
+      </c>
+      <c r="U4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" t="s">
+        <v>53</v>
+      </c>
+      <c r="W4">
+        <v>612</v>
+      </c>
+      <c r="X4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:676">
+      <c r="A5">
+        <v>838200</v>
+      </c>
+      <c r="B5">
+        <v>193196</v>
+      </c>
+      <c r="C5">
+        <v>170175</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>600.0</v>
+      </c>
+      <c r="L5">
+        <v>0.0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5">
+        <v>4.0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5">
+        <v>600.0</v>
+      </c>
+      <c r="T5">
+        <v>696.0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5">
+        <v>621</v>
+      </c>
+      <c r="X5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:676">
+      <c r="A6">
+        <v>838880</v>
+      </c>
+      <c r="B6">
+        <v>193637</v>
+      </c>
+      <c r="C6">
+        <v>170852</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6">
+        <v>600.0</v>
+      </c>
+      <c r="L6">
+        <v>600.0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6">
+        <v>4.0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S6">
+        <v>1200.0</v>
+      </c>
+      <c r="T6">
+        <v>1392.0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W6">
+        <v>621</v>
+      </c>
+      <c r="X6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:676">
+      <c r="A7">
+        <v>839636</v>
+      </c>
+      <c r="B7">
+        <v>190409</v>
+      </c>
+      <c r="C7">
+        <v>166015</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7">
+        <v>600.0</v>
+      </c>
+      <c r="L7">
+        <v>1100.0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7">
+        <v>4.0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7">
+        <v>1700.0</v>
+      </c>
+      <c r="T7">
+        <v>1972.0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" t="s">
+        <v>60</v>
+      </c>
+      <c r="W7">
+        <v>621</v>
+      </c>
+      <c r="X7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:676">
+      <c r="A8">
+        <v>841456</v>
+      </c>
+      <c r="B8">
+        <v>191818</v>
+      </c>
+      <c r="C8">
+        <v>168220</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8">
+        <v>600.0</v>
+      </c>
+      <c r="L8">
+        <v>1100.0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8">
+        <v>4.0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8">
+        <v>1700.0</v>
+      </c>
+      <c r="T8">
+        <v>1972.0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8">
+        <v>621</v>
+      </c>
+      <c r="X8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:676">
+      <c r="A9">
+        <v>841485</v>
+      </c>
+      <c r="B9">
+        <v>191819</v>
+      </c>
+      <c r="C9">
+        <v>168221</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9">
+        <v>600.0</v>
+      </c>
+      <c r="L9">
+        <v>0.0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9">
+        <v>4.0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9">
+        <v>600.0</v>
+      </c>
+      <c r="T9">
+        <v>696.0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9">
+        <v>621</v>
+      </c>
+      <c r="X9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:676">
+      <c r="A10">
+        <v>842984</v>
+      </c>
+      <c r="B10">
+        <v>192544</v>
+      </c>
+      <c r="C10">
+        <v>169244</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>600.0</v>
+      </c>
+      <c r="L10">
+        <v>0.0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10">
+        <v>4.0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10">
+        <v>2060</v>
+      </c>
+      <c r="R10" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10">
+        <v>600.0</v>
+      </c>
+      <c r="T10">
+        <v>696.0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>45</v>
+      </c>
+      <c r="V10" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10">
+        <v>612</v>
+      </c>
+      <c r="X10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:676">
+      <c r="A11">
+        <v>843184</v>
+      </c>
+      <c r="B11">
+        <v>192495</v>
+      </c>
+      <c r="C11">
+        <v>169152</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <v>4140.0</v>
+      </c>
+      <c r="L11">
+        <v>1100.0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11">
+        <v>4.0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11">
+        <v>5240.0</v>
+      </c>
+      <c r="T11">
+        <v>6078.4</v>
+      </c>
+      <c r="U11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W11">
+        <v>621</v>
+      </c>
+      <c r="X11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:676">
+      <c r="A12">
+        <v>845488</v>
+      </c>
+      <c r="B12">
+        <v>194073</v>
+      </c>
+      <c r="C12">
+        <v>171426</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12">
+        <v>600.0</v>
+      </c>
+      <c r="L12">
+        <v>0.0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12">
+        <v>4.0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12">
+        <v>2058</v>
+      </c>
+      <c r="R12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12">
+        <v>600.0</v>
+      </c>
+      <c r="T12">
+        <v>696.0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12">
+        <v>612</v>
+      </c>
+      <c r="X12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:676">
+      <c r="A13">
+        <v>846434</v>
+      </c>
+      <c r="B13">
+        <v>194866</v>
+      </c>
+      <c r="C13">
+        <v>172995</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13">
+        <v>600.0</v>
+      </c>
+      <c r="L13">
+        <v>0.0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13">
+        <v>4.0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13">
+        <v>600.0</v>
+      </c>
+      <c r="T13">
+        <v>688.5</v>
+      </c>
+      <c r="U13" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13">
+        <v>626</v>
+      </c>
+      <c r="X13" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:676">
+      <c r="A14">
+        <v>846694</v>
+      </c>
+      <c r="B14">
+        <v>194434</v>
+      </c>
+      <c r="C14">
+        <v>171981</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>600.0</v>
+      </c>
+      <c r="L14">
+        <v>1500.0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14">
+        <v>4.0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14">
+        <v>3612</v>
+      </c>
+      <c r="R14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14">
+        <v>2100.0</v>
+      </c>
+      <c r="T14">
+        <v>2428.5</v>
+      </c>
+      <c r="U14" t="s">
+        <v>52</v>
+      </c>
+      <c r="V14" t="s">
+        <v>53</v>
+      </c>
+      <c r="W14">
+        <v>612</v>
+      </c>
+      <c r="X14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:676">
+      <c r="A15">
+        <v>848057</v>
+      </c>
+      <c r="B15">
+        <v>195121</v>
+      </c>
+      <c r="C15">
+        <v>172966</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>600.0</v>
+      </c>
+      <c r="L15">
+        <v>0.0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15">
+        <v>4.0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15">
+        <v>600.0</v>
+      </c>
+      <c r="T15">
+        <v>688.5</v>
+      </c>
+      <c r="U15" t="s">
+        <v>35</v>
+      </c>
+      <c r="V15" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15">
+        <v>626</v>
+      </c>
+      <c r="X15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:676">
+      <c r="A16">
+        <v>848564</v>
+      </c>
+      <c r="B16">
+        <v>195354</v>
+      </c>
+      <c r="C16">
+        <v>173279</v>
+      </c>
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16">
+        <v>600.0</v>
+      </c>
+      <c r="L16">
+        <v>0.0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16">
+        <v>4.0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16">
+        <v>600.0</v>
+      </c>
+      <c r="T16">
+        <v>688.5</v>
+      </c>
+      <c r="U16" t="s">
+        <v>35</v>
+      </c>
+      <c r="V16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W16">
+        <v>626</v>
+      </c>
+      <c r="X16" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:676">
+      <c r="A17">
+        <v>848574</v>
+      </c>
+      <c r="B17">
+        <v>195682</v>
+      </c>
+      <c r="C17">
+        <v>173949</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17">
+        <v>600.0</v>
+      </c>
+      <c r="L17">
+        <v>0.0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17">
+        <v>4.0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17">
+        <v>600.0</v>
+      </c>
+      <c r="T17">
+        <v>688.5</v>
+      </c>
+      <c r="U17" t="s">
+        <v>35</v>
+      </c>
+      <c r="V17" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17">
+        <v>626</v>
+      </c>
+      <c r="X17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Z1"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
